--- a/public/uploads/Dotacion turno A del 06-12-2022.xlsx
+++ b/public/uploads/Dotacion turno A del 06-12-2022.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88625071-51D1-4DC1-82E8-BA4C032BB8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE83F0-4DB3-428E-8BFB-F965F6884357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1395,76 +1395,76 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,13 +1490,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>145561</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>35169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2241176</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>158936</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1864,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,244 +1889,259 @@
     <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E6" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F6" s="56" t="s">
         <v>261</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="68">
+        <v>7</v>
+      </c>
+    </row>
     <row r="8" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="66">
-        <v>7</v>
-      </c>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="66"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>17</v>
+      <c r="A12" s="84"/>
+      <c r="B12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>20</v>
+      <c r="A13" s="84"/>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="66"/>
+        <v>272</v>
+      </c>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="66"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="67">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="67"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>23</v>
@@ -2134,15 +2149,17 @@
       <c r="E18" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="85" t="s">
+        <v>40</v>
+      </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>23</v>
@@ -2150,51 +2167,49 @@
       <c r="E19" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="67">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="85"/>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="67"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="65">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="65"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>23</v>
@@ -2202,63 +2217,63 @@
       <c r="E22" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="67"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="65"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="E24" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="67"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="65"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>23</v>
-      </c>
       <c r="E25" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>6</v>
@@ -2266,15 +2281,15 @@
       <c r="E26" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="67"/>
     </row>
     <row r="27" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>6</v>
@@ -2282,1444 +2297,1444 @@
       <c r="E27" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>58</v>
+      <c r="A28" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="85"/>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="67"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="85"/>
+      <c r="B30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="65"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="20" t="s">
+      <c r="E30" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="67"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="85"/>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="67"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="85"/>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E33" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F33" s="67"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85"/>
+      <c r="B34" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F34" s="67"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="85"/>
+      <c r="B35" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="67"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="85"/>
+      <c r="B36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="67"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="85"/>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" s="67"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85"/>
+      <c r="B39" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="67"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="85"/>
+      <c r="B40" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" s="67"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="85"/>
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F41" s="67"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="85"/>
+      <c r="B42" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="67"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="85"/>
+      <c r="B43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="67"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="85"/>
+      <c r="B44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="67"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="85"/>
+      <c r="B45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="67"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="85"/>
+      <c r="B47" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="61" t="s">
+      <c r="F47" s="73"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="85"/>
+      <c r="B48" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="65"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="62" t="s">
+      <c r="F48" s="73"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="85"/>
+      <c r="B49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F31" s="65"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="27" t="s">
+      <c r="F49" s="73"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="85"/>
+      <c r="B50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="F32" s="65"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="F34" s="65"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F35" s="65"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F36" s="65"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" s="65"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F38" s="65"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="F40" s="65"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" s="65"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F42" s="65"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F43" s="65"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F44" s="65"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="65"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F46" s="65"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="F47" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" s="67"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="F49" s="67"/>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="E50" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F50" s="67"/>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>35</v>
+      <c r="F50" s="73"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="85"/>
+      <c r="B51" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>6</v>
       </c>
       <c r="E51" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F51" s="67"/>
+      <c r="F51" s="73"/>
     </row>
     <row r="52" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="A52" s="85"/>
+      <c r="B52" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" s="73"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="85"/>
+      <c r="B53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="73"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="85"/>
+      <c r="B54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="73"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="85"/>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="68"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="85"/>
+      <c r="B57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57" s="68"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="85"/>
+      <c r="B58" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" s="68"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F59" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="84"/>
+      <c r="B60" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="67"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="84"/>
+      <c r="B61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" s="67"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="85"/>
+      <c r="B63" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="E63" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63" s="73"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="85"/>
+      <c r="B64" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F64" s="73"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="85"/>
+      <c r="B65" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" s="73"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="85"/>
+      <c r="B66" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" s="73"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="85"/>
+      <c r="B67" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F67" s="73"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="85"/>
+      <c r="B68" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F68" s="73"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="85"/>
+      <c r="B69" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F69" s="73"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F70" s="86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="84"/>
+      <c r="B71" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" s="86"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="84"/>
+      <c r="B72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F72" s="86"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F73" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="84"/>
+      <c r="B75" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F75" s="67"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="84"/>
+      <c r="B76" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="67"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="84"/>
+      <c r="B77" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77" s="67"/>
+    </row>
+    <row r="78" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="84"/>
+      <c r="B78" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F78" s="67"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F79" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="84"/>
+      <c r="B80" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F80" s="67"/>
+    </row>
+    <row r="81" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="84"/>
+      <c r="B81" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F81" s="67"/>
+    </row>
+    <row r="82" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="84"/>
+      <c r="B82" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F82" s="67"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="F52" s="67"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="F83" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="85"/>
+      <c r="B84" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F84" s="67"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="85"/>
+      <c r="B85" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="67"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="84"/>
+      <c r="B87" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" s="67"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="84"/>
+      <c r="B88" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53" s="67"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="E88" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F88" s="67"/>
+    </row>
+    <row r="89" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F89" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="84"/>
+      <c r="B90" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F90" s="67"/>
+    </row>
+    <row r="91" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="84"/>
+      <c r="B91" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="F54" s="67"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="F55" s="67"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="14" t="s">
+      <c r="E91" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F91" s="67"/>
+    </row>
+    <row r="92" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F92" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="84"/>
+      <c r="B93" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F56" s="66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F57" s="66"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F58" s="66"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F59" s="66"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F60" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F61" s="65"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F62" s="65"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F63" s="67">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="15" t="s">
+      <c r="E93" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="68"/>
+    </row>
+    <row r="94" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="84"/>
+      <c r="B94" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="46" t="s">
         <v>6</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F64" s="67"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F65" s="67"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F66" s="67"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F67" s="67"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
-      <c r="B68" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F68" s="67"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F69" s="67"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F70" s="67"/>
-    </row>
-    <row r="71" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="F71" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F72" s="68"/>
-    </row>
-    <row r="73" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="F73" s="68"/>
-    </row>
-    <row r="74" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F74" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F75" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F76" s="65"/>
-    </row>
-    <row r="77" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" s="65"/>
-    </row>
-    <row r="78" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="F78" s="65"/>
-    </row>
-    <row r="79" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F79" s="65"/>
-    </row>
-    <row r="80" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F80" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="B81" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F81" s="65"/>
-    </row>
-    <row r="82" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F82" s="65"/>
-    </row>
-    <row r="83" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F83" s="65"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="F85" s="65"/>
-    </row>
-    <row r="86" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="F86" s="65"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F87" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F88" s="65"/>
-    </row>
-    <row r="89" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F89" s="65"/>
-    </row>
-    <row r="90" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F90" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="B91" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F91" s="65"/>
-    </row>
-    <row r="92" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
-      <c r="B92" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="F92" s="65"/>
-    </row>
-    <row r="93" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="E93" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F93" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>23</v>
       </c>
       <c r="E94" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="F94" s="66"/>
+      <c r="F94" s="68"/>
     </row>
     <row r="95" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
+      <c r="A95" s="84"/>
       <c r="B95" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D95" s="46" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E95" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="F95" s="66"/>
+      <c r="F95" s="68"/>
     </row>
     <row r="96" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
+      <c r="A96" s="84"/>
       <c r="B96" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D96" s="46" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E96" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="F96" s="66"/>
+      <c r="F96" s="68"/>
     </row>
     <row r="97" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D97" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F97" s="68"/>
+    </row>
+    <row r="98" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="84"/>
+      <c r="B98" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="F97" s="66"/>
-    </row>
-    <row r="98" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="63"/>
-      <c r="B98" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="D98" s="46" t="s">
+      <c r="E98" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F98" s="68"/>
+    </row>
+    <row r="99" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="84"/>
+      <c r="B99" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="F98" s="66"/>
-    </row>
-    <row r="99" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="14" t="s">
+      <c r="E99" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F99" s="68"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="84"/>
+      <c r="B100" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F99" s="66"/>
-    </row>
-    <row r="100" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
-      <c r="B100" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>23</v>
       </c>
       <c r="E100" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F100" s="66"/>
+      <c r="F100" s="68"/>
     </row>
     <row r="101" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
-      <c r="B101" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="61" t="s">
+      <c r="A101" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F101" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="85"/>
+      <c r="B102" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F102" s="67"/>
+    </row>
+    <row r="103" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="85"/>
+      <c r="B103" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F101" s="66"/>
-    </row>
-    <row r="102" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F102" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64"/>
-      <c r="B103" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="E103" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F103" s="65"/>
+      <c r="F103" s="67"/>
     </row>
     <row r="104" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
-      <c r="B104" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>225</v>
+      <c r="A104" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="E104" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F104" s="65"/>
+      <c r="F104" s="73">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="64" t="s">
-        <v>226</v>
-      </c>
+      <c r="A105" s="85"/>
       <c r="B105" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E105" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="F105" s="67">
-        <v>1</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F105" s="73"/>
     </row>
     <row r="106" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
-      <c r="B106" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E106" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F106" s="67"/>
+      <c r="A106" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="F106" s="74">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="40" t="s">
-        <v>233</v>
+        <v>238</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>239</v>
       </c>
       <c r="E107" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F107" s="73">
-        <v>4</v>
-      </c>
+      <c r="F107" s="74"/>
     </row>
     <row r="108" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B108" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="E108" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="F108" s="73"/>
+        <v>240</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E108" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F108" s="74"/>
     </row>
     <row r="109" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F109" s="73"/>
+        <v>245</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E109" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F109" s="74"/>
     </row>
     <row r="110" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E110" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F110" s="73"/>
-    </row>
-    <row r="111" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="69" t="s">
+      <c r="A110" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B110" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="C110" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D110" s="30" t="s">
         <v>17</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F110" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="69"/>
+      <c r="B111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F111" s="71">
-        <v>0</v>
-      </c>
+      <c r="F111" s="71"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="69"/>
-      <c r="B112" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>6</v>
+      <c r="B112" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>248</v>
@@ -3727,96 +3742,80 @@
       <c r="F112" s="71"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="69"/>
+      <c r="A113" s="70"/>
       <c r="B113" s="4" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F113" s="71"/>
+      <c r="F113" s="72"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
-      <c r="B114" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F114" s="72"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="85" t="s">
+      <c r="E114" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="F115" s="83">
-        <f>F111+F107+F105+F102+F93+F90+F87+F84+F80+F75+F74+F63+F60+F56+F47+F39+F33+F29+F20+F16+F8+F71</f>
+      <c r="F114" s="63">
+        <f>F110+F106+F104+F101+F92+F89+F86+F83+F79+F74+F73+F62+F59+F55+F46+F38+F32+F28+F19+F15+F7+F70</f>
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E116" s="86"/>
-      <c r="F116" s="84"/>
+    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="66"/>
+      <c r="F115" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F93:F101"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="F111:F114"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="F39:F46"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F63:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A46:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="A1:F5"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="F46:F54"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="F92:F100"/>
+    <mergeCell ref="F101:F103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
